--- a/biology/Zoologie/Aquarium_public/Aquarium_public.xlsx
+++ b/biology/Zoologie/Aquarium_public/Aquarium_public.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un aquarium public est un établissement ouvert au public pour l'observation des espèces aquatiques dans des aquariums exposés dans un but commercial ou éducatif.
 Certains aquariums se sont spécialisés dans la présentation d'espèces d'eau douce, d'autres dans l'exhibition d'espèces d'eau de mer.
@@ -513,7 +525,9 @@
           <t>Généralité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aquariums publics se sont développés sur le même modèle : des galeries de bassins de taille variable, conçues comme des fenêtres ouvertes sur le monde aquatique. La plupart des aquariums publics comportent un certain nombre de petits réservoirs et un ou plusieurs bassins plus grands. Les plus grands bassins peuvent contenir plusieurs millions de litres d'eau et peuvent loger de grandes espèces, comme les dauphins, les requins ou les baleines. Des mammifères marins et des oiseaux de mer, comme des otaries et des manchots, peuvent également être présentés par les aquariums publics.
 La technologie et les connaissances sur les divers groupes d'organismes aquatiques permettent, aujourd'hui, de répartir les espèces hébergées dans un aquarium à l'égard de leurs habitudes, de leurs caractéristiques et de leurs besoins.
@@ -521,7 +535,7 @@
 Il est ainsi possible de répondre aux besoins ancestraux des êtres humains de voir des animaux vivants, mais en même temps d'assurer, aux animaux présentés, des conditions de vie aussi proches que possible de celles trouvées dans la nature.
 Les aquariums doivent être ouverts à un public de tous horizons (local, régional et national, voire international). Pour ce faire, les aquariums publics présentent des animaux venus du monde entier et originaires des eaux et milieux aquatiques des cinq continents et océans du globe.
 Mais cela n'est pas suffisant comme but pour un aquarium contemporain. Aujourd'hui, le rôle d'un aquarium public est également d'être un intermédiaire entre la science et le grand public, au moyen d'une approche pédagogique particulièrement riche en idées et en suggestions qui, appuyée par une conception didactique, permet d'attirer, de sensibiliser, d'informer, de documenter, de divertir les visiteurs. Les aquariums publics peuvent tout simplement éduquer le public d'une manière récréative.
-En direction des générations futures, certains aquariums élaborent, plus particulièrement, des programmes pédagogiques pour les écoles, adaptés au niveau d'études des enfants[1].
+En direction des générations futures, certains aquariums élaborent, plus particulièrement, des programmes pédagogiques pour les écoles, adaptés au niveau d'études des enfants.
 De même que les parcs zoologiques, les aquariums publics ont généralement du personnel de recherche spécialisé qui étudie les habitudes et la biologie de leurs spécimens.
 </t>
         </is>
@@ -551,7 +565,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Techniquement, un aquarium public est semblable à un zoo ou à un musée. Un bon aquarium aura des expositions spéciales et temporaires pour attirer les visiteurs, ainsi qu'une collection permanente. En outre comme pour les zoos de renom, les aquariums ont habituellement des chercheurs qui étudient les habitudes écologiques, les mœurs et la vie des espèces présentées pour mieux connaître leurs besoins biologiques afin de tenter d'améliorer l'acclimatation, la longévité et la reproduction des spécimens en captivité. Ces dernières années, les grands aquariums avaient essayé d'acquérir et d'augmenter les diverses espèces de poissons des océans, ainsi que des méduses, une tâche difficile puisque ces créatures pélagiques n'ont pas la notion de limites comme les parois d'un réservoir et n'ont donc pas l'instinct de les contourner.
 Les aquariums panoramiques permettent de présenter les écosystèmes marins reconstitués dans de grands bassins où les poissons évoluent en bancs et les récifs coralliens sont vivants.
@@ -591,7 +607,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier aquarium public s'est ouvert à Regent's Park à Londres en 1853. Phineas Taylor Barnum a rapidement suivi avec le premier aquarium américain, ouvert en 1856 sur Broadway à New York. Puis de nombreuses villes suivirent les mêmes exemples, en Europe et en Amérique, et eurent alors leurs aquariums publics.
 en Europe : Concarneau (Marinarium, 1859), Vienne (Wiener Meerwasser Aquarium, 1860-1862), Paris (Jardin d'Acclimatation, 1861-1952), Hambourg (1864-1930), Arcachon (1865), Hanovre (Egestorf Aquarium, 1866-1882), Berlin (Unter den Linden, 1869-1910), Londres (Crystal Palace, 1871-1886), Blackpool (1872), Brighton (1872), Copenhague (Aquarium &amp; Terrarium, 1872-1880), Naples (1874), Francfort sur le Main (1877), Paris (Trocadéro, 1878-1985), Amsterdam (Artis, 1882), Banyuls sur Mer (1882), Plymouth (1888-1998), Lisbonne (Aquário Vasco de Gama, 1898) ;
@@ -635,39 +653,348 @@
           <t>Quelques aquariums dans le monde</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'aquarium de Beni Saf, Algerie.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aquarium de Beni Saf, Algerie.
 L'Europe compte désormais de grands aquariums, comme l'Allemagne avec ceux de Berlin ou de Düsseldorf, l'Espagne avec l'Oceanogràfic intégré dans la Cité des arts et des sciences à Valence ou le Portugal avec l'Oceanário à Lisbonne. Il en est de même pour la Turquie avec l'aquarium d'Istanbul, situé dans la partie européenne d'Istanbul.
 Mais, c'est surtout aux États-Unis et au Japon où l'on rencontre les plus grands aquariums spectaculaires devenus des oceanariums.
 L'aquarium Kaiyukan d'Osaka, par exemple, détient un réservoir de 5 400 m2 et une collection d'environ 580 espèces de la vie aquatique.
 Le Shedd Aquarium de Chicago met en valeur un aquarium individuel de 7,7 millions de litres.
-L'aquarium de Géorgie, ouvert en 2005 à Atlanta aux États-Unis, contient au total plus de 30 millions de litres d'eau douce et de mer, et présente plus de 100 000 animaux de 500 espèces différentes. L'aquarium de l'Académie des Sciences de Californie à San Francisco, situé dans un nouveau bâtiment inauguré en 2008, mesure plus de 7 mètres de hauteur et abrite plus de 3000 poissons exotiques dans un écosystème d'un récif corallien[2].
+L'aquarium de Géorgie, ouvert en 2005 à Atlanta aux États-Unis, contient au total plus de 30 millions de litres d'eau douce et de mer, et présente plus de 100 000 animaux de 500 espèces différentes. L'aquarium de l'Académie des Sciences de Californie à San Francisco, situé dans un nouveau bâtiment inauguré en 2008, mesure plus de 7 mètres de hauteur et abrite plus de 3000 poissons exotiques dans un écosystème d'un récif corallien.
 L'un des plus grands aquariums du monde se trouve à Dubaï (avec un volume de 10 millions de litres). Ouvert en 2008, le Dubai Aquarium &amp; Underwater Zoo est situé en plein milieu du Dubai Mall, un immense centre commercial de 800 000 m², présenté comme le plus grand au monde.
-Afrique du Sud
-Aquarium des Deux Océans, Le Cap
-Allemagne
-AquaDom dans un hôtel à Berlin
-Australie
-Aquarium de Melbourne
-Belgique
-Aquatopia à Anvers
-Canada
-Aquarium du Québec
-Aquarium de Vancouver
-Chine
-Aquarium océanique de Shanghai
-Espagne
-L'Oceanogràfic à Valence, le plus grand d'Europe
-États-Unis
-Aquarium de Géorgie (Atlanta), le plus grand du monde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aquarium des Deux Océans, Le Cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AquaDom dans un hôtel à Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Aquarium de Melbourne</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aquatopia à Anvers</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Aquarium du Québec
+Aquarium de Vancouver</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Aquarium océanique de Shanghai</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L'Oceanogràfic à Valence, le plus grand d'Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aquarium de Géorgie (Atlanta), le plus grand du monde
 Aquarium John G. Shedd, Chicago
 Aquarium de la baie de Monterey, Monterey, Californie
 Aquarium national de Baltimore, Baltimore, Maryland
 Aquarium de New York, New York
-Aquarium de la California Academy of Sciences
-France[3]
-Aquarium de La Cité de la Mer de Cherbourg
+Aquarium de la California Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>France[3]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Aquarium de La Cité de la Mer de Cherbourg
 Aquarium de la Cité des sciences et de l'industrie de la Villette à Paris
 Aquarium La Rochelle
 Aquarium de Vannes (fermé définitivement depuis 2020)
@@ -692,41 +1019,381 @@
 Nausicaá - Centre national de la mer à Boulogne-sur-Mer
 Océanopolis à Brest
 Océarium du Croisic
-Seaquarium du Grau-du-Roi
-Italie
-Aquarium de Gênes
+Seaquarium du Grau-du-Roi</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Aquarium de Gênes
 Aquarium municipal de Milan
-Aquarium de Naples
-Japon
-Aquarium Churaumi d'Okinawa, le deuxième plus grand du monde
+Aquarium de Naples</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Aquarium Churaumi d'Okinawa, le deuxième plus grand du monde
 Aquarium Kaiyukan, Osaka
 Aquarium du port de Nagoya
 Aquarium de Sumida, Tokyo
-Aqua park shinagawa, Tokyo
-Monaco
-Musée océanographique de Monaco
-Nouvelle-Zélande
-National Aquarium of New Zealand, Napier
-Kelly Tarlton's Sea Life Aquarium, Auckland
-Pays-Bas
-Deltapark Neeltje Jans, à Vrouwenpolder
-Aquarium de Curaçao, à Willemstad
-Pologne
-Akwarium Gdyńskie, Gdynia
+Aqua park shinagawa, Tokyo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Musée océanographique de Monaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>National Aquarium of New Zealand, Napier
+Kelly Tarlton's Sea Life Aquarium, Auckland</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Deltapark Neeltje Jans, à Vrouwenpolder
+Aquarium de Curaçao, à Willemstad</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pologne</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Akwarium Gdyńskie, Gdynia
 Aquarium, Cracovie
-Fokarium, Hel
-Portugal
-Oceanário, Lisbonne
+Fokarium, Hel</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Oceanário, Lisbonne
 Aquário Vasco da Gama, Dafundo (Lisbonne)
 Fluviário de Mora, Mora
 Estação Litoral da Aguda, Vila Nova de Gaia
-Aquamuseu do Rio Minho, Vila Nova de Cerveira
-Singapour
-Underwater World, Singapour
-Suisse
-Aquatis, Lausanne
-Turquie
-Aquarium d'Istanbul, Istanbul</t>
+Aquamuseu do Rio Minho, Vila Nova de Cerveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Singapour</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Underwater World, Singapour</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Aquatis, Lausanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Aquarium_public</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquarium_public</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Quelques aquariums dans le monde</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Turquie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Aquarium d'Istanbul, Istanbul</t>
         </is>
       </c>
     </row>
